--- a/Fundamentals of statsitics (Bhumika Mam)/Assignment 1 New.xlsx
+++ b/Fundamentals of statsitics (Bhumika Mam)/Assignment 1 New.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achyut Sharma\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achyut Sharma\Documents\Data Sem 5\Fundamentals of statsitics (Bhumika Mam)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D53C95-2BAF-4727-B6FA-748C7C72173E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907E9CC4-6385-4290-AC63-4325902BCC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E0E6591-F09B-411B-B562-995E09440BB5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{8E0E6591-F09B-411B-B562-995E09440BB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2794,7 +2794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD2BAE1-9BC3-46AB-8ABD-94433D858305}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -3462,7 +3462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07668CCC-CF0E-42F0-BA07-C0B93CF643D8}">
   <dimension ref="A2:S55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -4251,7 +4251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A614A3-44F7-4A23-965C-39994EA54767}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
